--- a/アカウント登録　単体テスト　テストケース.xlsx
+++ b/アカウント登録　単体テスト　テストケース.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="57">
   <si>
     <t>単体テストケース</t>
     <rPh sb="0" eb="2">
@@ -830,8 +830,117 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DBとの接続をしていない状態で登録するボタンを押下</t>
+    <t>空欄の各項目の下に赤字でエラーメッセージが表示される</t>
+    <rPh sb="0" eb="2">
+      <t>クウラン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>カクコウモク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーが表示され、情報登録画面に留まる</t>
     <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>トド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面に遷移</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カクニンガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録完了画面に遷移</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報を保持したまま情報登録画面に遷移</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤字でアカウント登録できませんというエラーメッセージが表示される</t>
+    <rPh sb="0" eb="2">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DIブログのトップページへ遷移</t>
+    <rPh sb="13" eb="15">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBと接続がされていない状態で登録するボタンを押下</t>
+    <rPh sb="3" eb="5">
       <t>セツゾク</t>
     </rPh>
     <rPh sb="12" eb="14">
@@ -842,6 +951,64 @@
     </rPh>
     <rPh sb="23" eb="25">
       <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>環境</t>
+    <rPh sb="0" eb="2">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録完了画面</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カンリョウガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録完了画面に遷移できた場合に、DBにアカウントの情報が登録されたか確認する</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力された情報がDBに登録されている</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -910,15 +1077,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -934,6 +1095,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1215,10 +1385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1227,13 +1397,13 @@
     <col min="2" max="2" width="21.375" customWidth="1"/>
     <col min="3" max="3" width="42.875" customWidth="1"/>
     <col min="4" max="4" width="33.25" customWidth="1"/>
-    <col min="5" max="5" width="65.125" customWidth="1"/>
-    <col min="6" max="6" width="16.75" customWidth="1"/>
-    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="5" max="5" width="66.375" customWidth="1"/>
+    <col min="6" max="6" width="54.25" customWidth="1"/>
+    <col min="7" max="7" width="22.875" customWidth="1"/>
     <col min="8" max="8" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1245,58 +1415,61 @@
         <v>2</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="8">
         <v>20240225</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="7"/>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" s="5">
+      <c r="K4" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
       <c r="B5" t="s">
@@ -1308,9 +1481,12 @@
       <c r="E5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" s="5">
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
         <v>2</v>
       </c>
       <c r="B6" t="s">
@@ -1322,9 +1498,12 @@
       <c r="E6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
         <v>3</v>
       </c>
       <c r="B7" t="s">
@@ -1336,9 +1515,12 @@
       <c r="E7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="5">
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
         <v>4</v>
       </c>
       <c r="B8" t="s">
@@ -1350,9 +1532,12 @@
       <c r="E8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" s="5">
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
         <v>5</v>
       </c>
       <c r="B9" t="s">
@@ -1364,9 +1549,12 @@
       <c r="E9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
         <v>6</v>
       </c>
       <c r="B10" t="s">
@@ -1378,9 +1566,12 @@
       <c r="E10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" s="5">
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
         <v>7</v>
       </c>
       <c r="B11" t="s">
@@ -1392,9 +1583,12 @@
       <c r="E11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A12" s="5">
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
         <v>8</v>
       </c>
       <c r="B12" t="s">
@@ -1406,9 +1600,12 @@
       <c r="E12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
         <v>9</v>
       </c>
       <c r="B13" t="s">
@@ -1420,9 +1617,12 @@
       <c r="E13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A14" s="5">
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
         <v>10</v>
       </c>
       <c r="B14" t="s">
@@ -1434,9 +1634,12 @@
       <c r="E14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="5">
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
         <v>11</v>
       </c>
       <c r="B15" t="s">
@@ -1448,9 +1651,12 @@
       <c r="E15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A16" s="5">
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
         <v>12</v>
       </c>
       <c r="B16" t="s">
@@ -1462,9 +1668,12 @@
       <c r="E16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="5">
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
         <v>13</v>
       </c>
       <c r="B17" t="s">
@@ -1476,9 +1685,12 @@
       <c r="E17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="5">
+      <c r="F17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
         <v>14</v>
       </c>
       <c r="B18" t="s">
@@ -1490,9 +1702,12 @@
       <c r="E18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="5">
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
         <v>15</v>
       </c>
       <c r="B19" t="s">
@@ -1504,9 +1719,12 @@
       <c r="E19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="5">
+      <c r="F19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
         <v>16</v>
       </c>
       <c r="B20" t="s">
@@ -1518,9 +1736,12 @@
       <c r="E20" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="5">
+      <c r="F20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
         <v>17</v>
       </c>
       <c r="B21" t="s">
@@ -1532,9 +1753,12 @@
       <c r="E21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="5">
+      <c r="F21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
         <v>18</v>
       </c>
       <c r="B22" t="s">
@@ -1546,9 +1770,12 @@
       <c r="E22" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="5">
+      <c r="F22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
         <v>19</v>
       </c>
       <c r="B23" t="s">
@@ -1560,9 +1787,12 @@
       <c r="E23" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="5">
+      <c r="F23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
         <v>20</v>
       </c>
       <c r="B24" t="s">
@@ -1574,9 +1804,12 @@
       <c r="E24" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="5">
+      <c r="F24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
         <v>21</v>
       </c>
       <c r="B25" t="s">
@@ -1588,9 +1821,12 @@
       <c r="E25" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="5">
+      <c r="F25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
         <v>22</v>
       </c>
       <c r="B26" t="s">
@@ -1602,9 +1838,12 @@
       <c r="E26" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="5">
+      <c r="F26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
         <v>23</v>
       </c>
       <c r="B27" t="s">
@@ -1616,9 +1855,12 @@
       <c r="E27" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="5">
+      <c r="F27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
         <v>24</v>
       </c>
       <c r="B28" t="s">
@@ -1628,11 +1870,14 @@
         <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="5">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
         <v>26</v>
       </c>
       <c r="B29" t="s">
@@ -1644,119 +1889,134 @@
       <c r="E29" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="5">
+      <c r="F29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="5">
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="5">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="3">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="5">
+      <c r="A33" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="5">
+      <c r="A34" s="3">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="5">
+      <c r="A35" s="3">
         <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="5">
+      <c r="A36" s="3">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="5">
+      <c r="A37" s="3">
         <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="5">
+      <c r="A38" s="3">
         <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="5">
+      <c r="A39" s="3">
         <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="5">
+      <c r="A40" s="3">
         <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="5">
+      <c r="A41" s="3">
         <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="5">
+      <c r="A42" s="3">
         <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="5">
+      <c r="A43" s="3">
         <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" s="5">
+      <c r="A44" s="3">
         <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45" s="5">
+      <c r="A45" s="3">
         <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A46" s="5">
+      <c r="A46" s="3">
         <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" s="5">
+      <c r="A47" s="3">
         <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A48" s="5">
+      <c r="A48" s="3">
         <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="5">
+      <c r="A49" s="3">
         <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="5">
+      <c r="A50" s="3">
         <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="5">
+      <c r="A51" s="3">
         <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="5">
+      <c r="A52" s="3">
         <v>49</v>
       </c>
     </row>

--- a/アカウント登録　単体テスト　テストケース.xlsx
+++ b/アカウント登録　単体テスト　テストケース.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="54">
   <si>
     <t>単体テストケース</t>
     <rPh sb="0" eb="2">
@@ -958,57 +958,6 @@
     <t>環境</t>
     <rPh sb="0" eb="2">
       <t>カンキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アカウント登録完了画面</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>カンリョウガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録完了画面に遷移できた場合に、DBにアカウントの情報が登録されたか確認する</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>入力された情報がDBに登録されている</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1096,14 +1045,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1385,10 +1334,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1404,17 +1353,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6"/>
+      <c r="E1" s="7"/>
       <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
@@ -1423,15 +1372,15 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="6">
         <v>20240225</v>
       </c>
     </row>
@@ -1442,10 +1391,10 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="8"/>
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1891,133 +1840,6 @@
       </c>
       <c r="F29" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
-        <v>27</v>
-      </c>
-      <c r="B30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="3">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" s="3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" s="3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" s="3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="3">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="3">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="3">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" s="3">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45" s="3">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A46" s="3">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" s="3">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A48" s="3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" s="3">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" s="3">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" s="3">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" s="3">
-        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/アカウント登録　単体テスト　テストケース.xlsx
+++ b/アカウント登録　単体テスト　テストケース.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="184">
   <si>
     <t>単体テストケース</t>
     <rPh sb="0" eb="2">
@@ -2192,6 +2192,101 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前に戻るボタンを押下</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録するボタンを押下</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録確認画面</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>カクニンガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント情報登録画面に遷移</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録完了画面に遷移</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント登録完了画面</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TOPページへ戻るボタンを押下</t>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DIブログトップページへ遷移</t>
+    <rPh sb="12" eb="14">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2260,7 +2355,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2290,6 +2385,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2582,8 +2680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A172" sqref="A139:A172"/>
+    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C142" sqref="C142:D142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2599,17 +2697,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11"/>
+      <c r="E1" s="12"/>
       <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
@@ -2618,11 +2716,11 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
@@ -2637,10 +2735,10 @@
       <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
@@ -2726,10 +2824,10 @@
       <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="6" t="s">
         <v>121</v>
       </c>
@@ -2741,10 +2839,10 @@
       <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="10"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="6" t="s">
         <v>121</v>
       </c>
@@ -2756,10 +2854,10 @@
       <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="6" t="s">
         <v>121</v>
       </c>
@@ -2771,10 +2869,10 @@
       <c r="B12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="6" t="s">
         <v>121</v>
       </c>
@@ -2786,10 +2884,10 @@
       <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="6" t="s">
         <v>121</v>
       </c>
@@ -2801,10 +2899,10 @@
       <c r="B14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="10"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="6" t="s">
         <v>121</v>
       </c>
@@ -2816,10 +2914,10 @@
       <c r="B15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="6" t="s">
         <v>122</v>
       </c>
@@ -2831,10 +2929,10 @@
       <c r="B16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="6" t="s">
         <v>122</v>
       </c>
@@ -2849,7 +2947,7 @@
       <c r="C17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="6" t="s">
         <v>122</v>
       </c>
@@ -2864,7 +2962,7 @@
       <c r="C18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="8"/>
+      <c r="D18" s="10"/>
       <c r="E18" s="6" t="s">
         <v>122</v>
       </c>
@@ -2879,7 +2977,7 @@
       <c r="C19" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="8"/>
+      <c r="D19" s="10"/>
       <c r="E19" s="6" t="s">
         <v>122</v>
       </c>
@@ -2894,7 +2992,7 @@
       <c r="C20" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="6" t="s">
         <v>122</v>
       </c>
@@ -2909,7 +3007,7 @@
       <c r="C21" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="6" t="s">
         <v>167</v>
       </c>
@@ -2924,7 +3022,7 @@
       <c r="C22" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D22" s="8"/>
+      <c r="D22" s="10"/>
       <c r="E22" s="6" t="s">
         <v>167</v>
       </c>
@@ -2954,7 +3052,7 @@
       <c r="C24" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="10"/>
       <c r="E24" s="6" t="s">
         <v>122</v>
       </c>
@@ -2969,7 +3067,7 @@
       <c r="C25" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="8"/>
+      <c r="D25" s="10"/>
       <c r="E25" s="6" t="s">
         <v>123</v>
       </c>
@@ -2984,7 +3082,7 @@
       <c r="C26" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="8"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="6" t="s">
         <v>167</v>
       </c>
@@ -2999,7 +3097,7 @@
       <c r="C27" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="D27" s="8"/>
+      <c r="D27" s="10"/>
       <c r="E27" s="6" t="s">
         <v>167</v>
       </c>
@@ -3029,7 +3127,7 @@
       <c r="C29" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="8"/>
+      <c r="D29" s="10"/>
       <c r="E29" s="6" t="s">
         <v>167</v>
       </c>
@@ -3044,7 +3142,7 @@
       <c r="C30" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="8"/>
+      <c r="D30" s="10"/>
       <c r="E30" s="6" t="s">
         <v>167</v>
       </c>
@@ -3059,7 +3157,7 @@
       <c r="C31" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="8"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="6" t="s">
         <v>122</v>
       </c>
@@ -3074,7 +3172,7 @@
       <c r="C32" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D32" s="8"/>
+      <c r="D32" s="10"/>
       <c r="E32" s="6" t="s">
         <v>167</v>
       </c>
@@ -3104,7 +3202,7 @@
       <c r="C34" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="8"/>
+      <c r="D34" s="10"/>
       <c r="E34" s="6" t="s">
         <v>167</v>
       </c>
@@ -3119,7 +3217,7 @@
       <c r="C35" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="8"/>
+      <c r="D35" s="10"/>
       <c r="E35" s="6" t="s">
         <v>167</v>
       </c>
@@ -3134,7 +3232,7 @@
       <c r="C36" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="8"/>
+      <c r="D36" s="10"/>
       <c r="E36" s="6" t="s">
         <v>139</v>
       </c>
@@ -3149,7 +3247,7 @@
       <c r="C37" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D37" s="8"/>
+      <c r="D37" s="10"/>
       <c r="E37" s="6" t="s">
         <v>169</v>
       </c>
@@ -3179,7 +3277,7 @@
       <c r="C39" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="8"/>
+      <c r="D39" s="10"/>
       <c r="E39" s="6" t="s">
         <v>169</v>
       </c>
@@ -3194,7 +3292,7 @@
       <c r="C40" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="8"/>
+      <c r="D40" s="10"/>
       <c r="E40" s="6" t="s">
         <v>169</v>
       </c>
@@ -3209,7 +3307,7 @@
       <c r="C41" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D41" s="8"/>
+      <c r="D41" s="10"/>
       <c r="E41" s="6" t="s">
         <v>169</v>
       </c>
@@ -3224,7 +3322,7 @@
       <c r="C42" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D42" s="8"/>
+      <c r="D42" s="10"/>
       <c r="E42" s="6" t="s">
         <v>122</v>
       </c>
@@ -3254,7 +3352,7 @@
       <c r="C44" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D44" s="8"/>
+      <c r="D44" s="10"/>
       <c r="E44" s="6" t="s">
         <v>167</v>
       </c>
@@ -3269,7 +3367,7 @@
       <c r="C45" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D45" s="8"/>
+      <c r="D45" s="10"/>
       <c r="E45" s="6" t="s">
         <v>167</v>
       </c>
@@ -3284,7 +3382,7 @@
       <c r="C46" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="8"/>
+      <c r="D46" s="10"/>
       <c r="E46" s="6" t="s">
         <v>167</v>
       </c>
@@ -3299,7 +3397,7 @@
       <c r="C47" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D47" s="8"/>
+      <c r="D47" s="10"/>
       <c r="E47" s="6" t="s">
         <v>122</v>
       </c>
@@ -3329,7 +3427,7 @@
       <c r="C49" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D49" s="8"/>
+      <c r="D49" s="10"/>
       <c r="E49" s="6" t="s">
         <v>167</v>
       </c>
@@ -3344,7 +3442,7 @@
       <c r="C50" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D50" s="8"/>
+      <c r="D50" s="10"/>
       <c r="E50" s="6" t="s">
         <v>167</v>
       </c>
@@ -3359,7 +3457,7 @@
       <c r="C51" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D51" s="8"/>
+      <c r="D51" s="10"/>
       <c r="E51" s="6" t="s">
         <v>167</v>
       </c>
@@ -3389,7 +3487,7 @@
       <c r="C53" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D53" s="8"/>
+      <c r="D53" s="10"/>
       <c r="E53" s="6" t="s">
         <v>167</v>
       </c>
@@ -3419,7 +3517,7 @@
       <c r="C55" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D55" s="8"/>
+      <c r="D55" s="10"/>
       <c r="E55" s="6" t="s">
         <v>122</v>
       </c>
@@ -3434,7 +3532,7 @@
       <c r="C56" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D56" s="8"/>
+      <c r="D56" s="10"/>
       <c r="E56" s="6" t="s">
         <v>147</v>
       </c>
@@ -3449,7 +3547,7 @@
       <c r="C57" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D57" s="8"/>
+      <c r="D57" s="10"/>
       <c r="E57" s="6" t="s">
         <v>122</v>
       </c>
@@ -3464,7 +3562,7 @@
       <c r="C58" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D58" s="8"/>
+      <c r="D58" s="10"/>
       <c r="E58" s="6" t="s">
         <v>152</v>
       </c>
@@ -3494,7 +3592,7 @@
       <c r="C60" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D60" s="8"/>
+      <c r="D60" s="10"/>
       <c r="E60" s="6" t="s">
         <v>122</v>
       </c>
@@ -3509,7 +3607,7 @@
       <c r="C61" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D61" s="8"/>
+      <c r="D61" s="10"/>
       <c r="E61" s="6" t="s">
         <v>153</v>
       </c>
@@ -3524,7 +3622,7 @@
       <c r="C62" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D62" s="8"/>
+      <c r="D62" s="10"/>
       <c r="E62" s="6" t="s">
         <v>154</v>
       </c>
@@ -3539,7 +3637,7 @@
       <c r="C63" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="D63" s="8"/>
+      <c r="D63" s="10"/>
       <c r="E63" s="6" t="s">
         <v>119</v>
       </c>
@@ -3569,7 +3667,7 @@
       <c r="C65" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D65" s="8"/>
+      <c r="D65" s="10"/>
       <c r="E65" s="6" t="s">
         <v>122</v>
       </c>
@@ -3581,10 +3679,10 @@
       <c r="B66" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D66" s="8"/>
+      <c r="D66" s="10"/>
       <c r="E66" s="6" t="s">
         <v>156</v>
       </c>
@@ -3596,10 +3694,10 @@
       <c r="B67" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D67" s="8"/>
+      <c r="D67" s="10"/>
       <c r="E67" s="6" t="s">
         <v>157</v>
       </c>
@@ -3611,10 +3709,10 @@
       <c r="B68" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D68" s="8"/>
+      <c r="D68" s="10"/>
       <c r="E68" s="6" t="s">
         <v>158</v>
       </c>
@@ -3626,10 +3724,10 @@
       <c r="B69" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D69" s="8"/>
+      <c r="D69" s="10"/>
       <c r="E69" s="6" t="s">
         <v>159</v>
       </c>
@@ -3641,10 +3739,10 @@
       <c r="B70" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D70" s="8"/>
+      <c r="D70" s="10"/>
       <c r="E70" s="6" t="s">
         <v>160</v>
       </c>
@@ -3656,10 +3754,10 @@
       <c r="B71" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D71" s="8"/>
+      <c r="D71" s="10"/>
       <c r="E71" s="6" t="s">
         <v>161</v>
       </c>
@@ -3671,10 +3769,10 @@
       <c r="B72" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D72" s="8"/>
+      <c r="D72" s="10"/>
       <c r="E72" s="6" t="s">
         <v>162</v>
       </c>
@@ -3686,10 +3784,10 @@
       <c r="B73" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D73" s="8"/>
+      <c r="D73" s="10"/>
       <c r="E73" s="6" t="s">
         <v>163</v>
       </c>
@@ -3704,7 +3802,7 @@
       <c r="C74" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D74" s="8"/>
+      <c r="D74" s="10"/>
       <c r="E74" s="6" t="s">
         <v>164</v>
       </c>
@@ -3716,10 +3814,10 @@
       <c r="B75" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D75" s="8"/>
+      <c r="D75" s="10"/>
       <c r="E75" s="6" t="s">
         <v>165</v>
       </c>
@@ -3734,7 +3832,7 @@
       <c r="C76" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D76" s="8"/>
+      <c r="D76" s="10"/>
       <c r="E76" s="6" t="s">
         <v>155</v>
       </c>
@@ -3749,7 +3847,7 @@
       <c r="C77" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D77" s="8"/>
+      <c r="D77" s="10"/>
       <c r="E77" s="6" t="s">
         <v>155</v>
       </c>
@@ -3764,7 +3862,7 @@
       <c r="C78" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D78" s="8"/>
+      <c r="D78" s="10"/>
       <c r="E78" s="6" t="s">
         <v>155</v>
       </c>
@@ -3779,7 +3877,7 @@
       <c r="C79" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D79" s="8"/>
+      <c r="D79" s="10"/>
       <c r="E79" s="6" t="s">
         <v>155</v>
       </c>
@@ -3794,7 +3892,7 @@
       <c r="C80" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D80" s="8"/>
+      <c r="D80" s="10"/>
       <c r="E80" s="6" t="s">
         <v>155</v>
       </c>
@@ -3809,7 +3907,7 @@
       <c r="C81" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D81" s="8"/>
+      <c r="D81" s="10"/>
       <c r="E81" s="6" t="s">
         <v>155</v>
       </c>
@@ -3824,7 +3922,7 @@
       <c r="C82" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D82" s="8"/>
+      <c r="D82" s="10"/>
       <c r="E82" s="6" t="s">
         <v>155</v>
       </c>
@@ -3839,7 +3937,7 @@
       <c r="C83" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D83" s="8"/>
+      <c r="D83" s="10"/>
       <c r="E83" s="6" t="s">
         <v>155</v>
       </c>
@@ -3854,7 +3952,7 @@
       <c r="C84" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D84" s="8"/>
+      <c r="D84" s="10"/>
       <c r="E84" s="6" t="s">
         <v>155</v>
       </c>
@@ -3869,7 +3967,7 @@
       <c r="C85" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D85" s="8"/>
+      <c r="D85" s="10"/>
       <c r="E85" s="6" t="s">
         <v>155</v>
       </c>
@@ -3884,7 +3982,7 @@
       <c r="C86" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D86" s="8"/>
+      <c r="D86" s="10"/>
       <c r="E86" s="6" t="s">
         <v>155</v>
       </c>
@@ -3899,7 +3997,7 @@
       <c r="C87" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D87" s="8"/>
+      <c r="D87" s="10"/>
       <c r="E87" s="6" t="s">
         <v>155</v>
       </c>
@@ -3914,7 +4012,7 @@
       <c r="C88" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D88" s="8"/>
+      <c r="D88" s="10"/>
       <c r="E88" s="6" t="s">
         <v>155</v>
       </c>
@@ -3929,7 +4027,7 @@
       <c r="C89" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D89" s="8"/>
+      <c r="D89" s="10"/>
       <c r="E89" s="6" t="s">
         <v>155</v>
       </c>
@@ -3944,7 +4042,7 @@
       <c r="C90" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D90" s="8"/>
+      <c r="D90" s="10"/>
       <c r="E90" s="6" t="s">
         <v>155</v>
       </c>
@@ -3959,7 +4057,7 @@
       <c r="C91" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D91" s="8"/>
+      <c r="D91" s="10"/>
       <c r="E91" s="6" t="s">
         <v>155</v>
       </c>
@@ -3974,7 +4072,7 @@
       <c r="C92" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="D92" s="8"/>
+      <c r="D92" s="10"/>
       <c r="E92" s="6" t="s">
         <v>155</v>
       </c>
@@ -3989,7 +4087,7 @@
       <c r="C93" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D93" s="8"/>
+      <c r="D93" s="10"/>
       <c r="E93" s="6" t="s">
         <v>155</v>
       </c>
@@ -4004,7 +4102,7 @@
       <c r="C94" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D94" s="8"/>
+      <c r="D94" s="10"/>
       <c r="E94" s="6" t="s">
         <v>155</v>
       </c>
@@ -4019,7 +4117,7 @@
       <c r="C95" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D95" s="8"/>
+      <c r="D95" s="10"/>
       <c r="E95" s="6" t="s">
         <v>155</v>
       </c>
@@ -4034,7 +4132,7 @@
       <c r="C96" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D96" s="8"/>
+      <c r="D96" s="10"/>
       <c r="E96" s="6" t="s">
         <v>155</v>
       </c>
@@ -4049,7 +4147,7 @@
       <c r="C97" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D97" s="8"/>
+      <c r="D97" s="10"/>
       <c r="E97" s="6" t="s">
         <v>155</v>
       </c>
@@ -4064,7 +4162,7 @@
       <c r="C98" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D98" s="8"/>
+      <c r="D98" s="10"/>
       <c r="E98" s="6" t="s">
         <v>155</v>
       </c>
@@ -4079,7 +4177,7 @@
       <c r="C99" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D99" s="8"/>
+      <c r="D99" s="10"/>
       <c r="E99" s="6" t="s">
         <v>155</v>
       </c>
@@ -4094,7 +4192,7 @@
       <c r="C100" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D100" s="8"/>
+      <c r="D100" s="10"/>
       <c r="E100" s="6" t="s">
         <v>155</v>
       </c>
@@ -4109,7 +4207,7 @@
       <c r="C101" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D101" s="8"/>
+      <c r="D101" s="10"/>
       <c r="E101" s="6" t="s">
         <v>155</v>
       </c>
@@ -4124,7 +4222,7 @@
       <c r="C102" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D102" s="8"/>
+      <c r="D102" s="10"/>
       <c r="E102" s="6" t="s">
         <v>155</v>
       </c>
@@ -4139,7 +4237,7 @@
       <c r="C103" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="D103" s="8"/>
+      <c r="D103" s="10"/>
       <c r="E103" s="6" t="s">
         <v>155</v>
       </c>
@@ -4154,7 +4252,7 @@
       <c r="C104" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D104" s="8"/>
+      <c r="D104" s="10"/>
       <c r="E104" s="6" t="s">
         <v>155</v>
       </c>
@@ -4169,7 +4267,7 @@
       <c r="C105" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D105" s="8"/>
+      <c r="D105" s="10"/>
       <c r="E105" s="6" t="s">
         <v>155</v>
       </c>
@@ -4184,7 +4282,7 @@
       <c r="C106" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D106" s="8"/>
+      <c r="D106" s="10"/>
       <c r="E106" s="6" t="s">
         <v>155</v>
       </c>
@@ -4199,7 +4297,7 @@
       <c r="C107" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D107" s="8"/>
+      <c r="D107" s="10"/>
       <c r="E107" s="6" t="s">
         <v>155</v>
       </c>
@@ -4214,7 +4312,7 @@
       <c r="C108" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D108" s="8"/>
+      <c r="D108" s="10"/>
       <c r="E108" s="6" t="s">
         <v>155</v>
       </c>
@@ -4229,7 +4327,7 @@
       <c r="C109" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D109" s="8"/>
+      <c r="D109" s="10"/>
       <c r="E109" s="6" t="s">
         <v>155</v>
       </c>
@@ -4244,7 +4342,7 @@
       <c r="C110" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D110" s="8"/>
+      <c r="D110" s="10"/>
       <c r="E110" s="6" t="s">
         <v>155</v>
       </c>
@@ -4259,7 +4357,7 @@
       <c r="C111" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="D111" s="8"/>
+      <c r="D111" s="10"/>
       <c r="E111" s="6" t="s">
         <v>155</v>
       </c>
@@ -4271,10 +4369,10 @@
       <c r="B112" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C112" s="8" t="s">
+      <c r="C112" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D112" s="8"/>
+      <c r="D112" s="10"/>
       <c r="E112" s="6" t="s">
         <v>166</v>
       </c>
@@ -4289,7 +4387,7 @@
       <c r="C113" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D113" s="8"/>
+      <c r="D113" s="10"/>
       <c r="E113" s="6" t="s">
         <v>167</v>
       </c>
@@ -4304,7 +4402,7 @@
       <c r="C114" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D114" s="8"/>
+      <c r="D114" s="10"/>
       <c r="E114" s="6" t="s">
         <v>167</v>
       </c>
@@ -4319,7 +4417,7 @@
       <c r="C115" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D115" s="8"/>
+      <c r="D115" s="10"/>
       <c r="E115" s="6" t="s">
         <v>167</v>
       </c>
@@ -4334,7 +4432,7 @@
       <c r="C116" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D116" s="8"/>
+      <c r="D116" s="10"/>
       <c r="E116" s="6" t="s">
         <v>167</v>
       </c>
@@ -4349,7 +4447,7 @@
       <c r="C117" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D117" s="8"/>
+      <c r="D117" s="10"/>
       <c r="E117" s="6" t="s">
         <v>167</v>
       </c>
@@ -4364,7 +4462,7 @@
       <c r="C118" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D118" s="8"/>
+      <c r="D118" s="10"/>
       <c r="E118" s="6" t="s">
         <v>167</v>
       </c>
@@ -4379,7 +4477,7 @@
       <c r="C119" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D119" s="8"/>
+      <c r="D119" s="10"/>
       <c r="E119" s="6" t="s">
         <v>167</v>
       </c>
@@ -4394,7 +4492,7 @@
       <c r="C120" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="D120" s="8"/>
+      <c r="D120" s="10"/>
       <c r="E120" s="6" t="s">
         <v>167</v>
       </c>
@@ -4409,7 +4507,7 @@
       <c r="C121" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="D121" s="8"/>
+      <c r="D121" s="10"/>
       <c r="E121" s="6" t="s">
         <v>167</v>
       </c>
@@ -4424,7 +4522,7 @@
       <c r="C122" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D122" s="8"/>
+      <c r="D122" s="10"/>
       <c r="E122" s="6" t="s">
         <v>167</v>
       </c>
@@ -4439,7 +4537,7 @@
       <c r="C123" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D123" s="8"/>
+      <c r="D123" s="10"/>
       <c r="E123" s="6" t="s">
         <v>167</v>
       </c>
@@ -4454,7 +4552,7 @@
       <c r="C124" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D124" s="8"/>
+      <c r="D124" s="10"/>
       <c r="E124" s="6" t="s">
         <v>167</v>
       </c>
@@ -4469,7 +4567,7 @@
       <c r="C125" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D125" s="8"/>
+      <c r="D125" s="10"/>
       <c r="E125" s="6" t="s">
         <v>167</v>
       </c>
@@ -4484,7 +4582,7 @@
       <c r="C126" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="D126" s="8"/>
+      <c r="D126" s="10"/>
       <c r="E126" s="6" t="s">
         <v>167</v>
       </c>
@@ -4499,7 +4597,7 @@
       <c r="C127" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D127" s="8"/>
+      <c r="D127" s="10"/>
       <c r="E127" s="6" t="s">
         <v>167</v>
       </c>
@@ -4514,7 +4612,7 @@
       <c r="C128" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D128" s="8"/>
+      <c r="D128" s="10"/>
       <c r="E128" s="6" t="s">
         <v>167</v>
       </c>
@@ -4529,7 +4627,7 @@
       <c r="C129" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="D129" s="8"/>
+      <c r="D129" s="10"/>
       <c r="E129" s="6" t="s">
         <v>120</v>
       </c>
@@ -4544,7 +4642,7 @@
       <c r="C130" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="D130" s="8"/>
+      <c r="D130" s="10"/>
       <c r="E130" s="6" t="s">
         <v>120</v>
       </c>
@@ -4559,7 +4657,7 @@
       <c r="C131" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D131" s="8"/>
+      <c r="D131" s="10"/>
       <c r="E131" s="6" t="s">
         <v>120</v>
       </c>
@@ -4574,7 +4672,7 @@
       <c r="C132" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D132" s="8"/>
+      <c r="D132" s="10"/>
       <c r="E132" s="6" t="s">
         <v>120</v>
       </c>
@@ -4589,7 +4687,7 @@
       <c r="C133" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D133" s="8"/>
+      <c r="D133" s="10"/>
       <c r="E133" s="6" t="s">
         <v>167</v>
       </c>
@@ -4604,7 +4702,7 @@
       <c r="C134" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D134" s="8"/>
+      <c r="D134" s="10"/>
       <c r="E134" s="6" t="s">
         <v>167</v>
       </c>
@@ -4619,7 +4717,7 @@
       <c r="C135" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="D135" s="8"/>
+      <c r="D135" s="10"/>
       <c r="E135" s="6" t="s">
         <v>167</v>
       </c>
@@ -4634,7 +4732,7 @@
       <c r="C136" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="D136" s="8"/>
+      <c r="D136" s="10"/>
       <c r="E136" s="6" t="s">
         <v>167</v>
       </c>
@@ -4649,7 +4747,7 @@
       <c r="C137" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="D137" s="8"/>
+      <c r="D137" s="10"/>
       <c r="E137" s="6" t="s">
         <v>120</v>
       </c>
@@ -4664,262 +4762,318 @@
       <c r="C138" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="D138" s="8"/>
+      <c r="D138" s="10"/>
       <c r="E138" s="6" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C139" s="8"/>
-      <c r="D139" s="8"/>
+      <c r="A139" s="3">
+        <v>135</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D139" s="10"/>
+      <c r="E139" s="6" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="140" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C140" s="8"/>
-      <c r="D140" s="8"/>
+      <c r="A140" s="3">
+        <v>136</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D140" s="10"/>
+      <c r="E140" s="6" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="141" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C141" s="8"/>
-      <c r="D141" s="8"/>
+      <c r="A141" s="3">
+        <v>137</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D141" s="10"/>
+      <c r="E141" s="6" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="142" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C142" s="8"/>
-      <c r="D142" s="8"/>
+      <c r="A142" s="3">
+        <v>138</v>
+      </c>
+      <c r="C142" s="10"/>
+      <c r="D142" s="10"/>
     </row>
     <row r="143" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C143" s="8"/>
-      <c r="D143" s="8"/>
+      <c r="A143" s="3">
+        <v>139</v>
+      </c>
+      <c r="C143" s="10"/>
+      <c r="D143" s="10"/>
     </row>
     <row r="144" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C144" s="8"/>
-      <c r="D144" s="8"/>
-    </row>
-    <row r="145" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C145" s="8"/>
-      <c r="D145" s="8"/>
-    </row>
-    <row r="146" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C146" s="8"/>
-      <c r="D146" s="8"/>
-    </row>
-    <row r="147" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C147" s="8"/>
-      <c r="D147" s="8"/>
-    </row>
-    <row r="148" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C148" s="8"/>
-      <c r="D148" s="8"/>
-    </row>
-    <row r="149" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C149" s="8"/>
-      <c r="D149" s="8"/>
-    </row>
-    <row r="150" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C150" s="8"/>
-      <c r="D150" s="8"/>
-    </row>
-    <row r="151" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C151" s="8"/>
-      <c r="D151" s="8"/>
-    </row>
-    <row r="152" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C152" s="8"/>
-      <c r="D152" s="8"/>
-    </row>
-    <row r="153" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C153" s="8"/>
-      <c r="D153" s="8"/>
-    </row>
-    <row r="154" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C154" s="8"/>
-      <c r="D154" s="8"/>
-    </row>
-    <row r="155" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C155" s="8"/>
-      <c r="D155" s="8"/>
-    </row>
-    <row r="156" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C156" s="8"/>
-      <c r="D156" s="8"/>
-    </row>
-    <row r="157" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C157" s="8"/>
-      <c r="D157" s="8"/>
-    </row>
-    <row r="158" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C158" s="8"/>
-      <c r="D158" s="8"/>
-    </row>
-    <row r="159" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C159" s="8"/>
-      <c r="D159" s="8"/>
-    </row>
-    <row r="160" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C160" s="8"/>
-      <c r="D160" s="8"/>
+      <c r="A144" s="3">
+        <v>140</v>
+      </c>
+      <c r="C144" s="10"/>
+      <c r="D144" s="10"/>
+    </row>
+    <row r="145" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="3">
+        <v>141</v>
+      </c>
+      <c r="C145" s="10"/>
+      <c r="D145" s="10"/>
+    </row>
+    <row r="146" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="3">
+        <v>142</v>
+      </c>
+      <c r="C146" s="10"/>
+      <c r="D146" s="10"/>
+    </row>
+    <row r="147" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C147" s="10"/>
+      <c r="D147" s="10"/>
+    </row>
+    <row r="148" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C148" s="10"/>
+      <c r="D148" s="10"/>
+    </row>
+    <row r="149" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C149" s="10"/>
+      <c r="D149" s="10"/>
+    </row>
+    <row r="150" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C150" s="10"/>
+      <c r="D150" s="10"/>
+    </row>
+    <row r="151" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C151" s="10"/>
+      <c r="D151" s="10"/>
+    </row>
+    <row r="152" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
+    </row>
+    <row r="153" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C153" s="10"/>
+      <c r="D153" s="10"/>
+    </row>
+    <row r="154" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C154" s="10"/>
+      <c r="D154" s="10"/>
+    </row>
+    <row r="155" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C155" s="10"/>
+      <c r="D155" s="10"/>
+    </row>
+    <row r="156" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C156" s="10"/>
+      <c r="D156" s="10"/>
+    </row>
+    <row r="157" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C157" s="10"/>
+      <c r="D157" s="10"/>
+    </row>
+    <row r="158" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C158" s="10"/>
+      <c r="D158" s="10"/>
+    </row>
+    <row r="159" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C159" s="10"/>
+      <c r="D159" s="10"/>
+    </row>
+    <row r="160" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C160" s="10"/>
+      <c r="D160" s="10"/>
     </row>
     <row r="161" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C161" s="8"/>
-      <c r="D161" s="8"/>
+      <c r="C161" s="10"/>
+      <c r="D161" s="10"/>
     </row>
     <row r="162" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C162" s="8"/>
-      <c r="D162" s="8"/>
+      <c r="C162" s="10"/>
+      <c r="D162" s="10"/>
     </row>
     <row r="163" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C163" s="8"/>
-      <c r="D163" s="8"/>
+      <c r="C163" s="10"/>
+      <c r="D163" s="10"/>
     </row>
     <row r="164" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C164" s="8"/>
-      <c r="D164" s="8"/>
+      <c r="C164" s="10"/>
+      <c r="D164" s="10"/>
     </row>
     <row r="165" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C165" s="8"/>
-      <c r="D165" s="8"/>
+      <c r="C165" s="10"/>
+      <c r="D165" s="10"/>
     </row>
     <row r="166" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C166" s="8"/>
-      <c r="D166" s="8"/>
+      <c r="C166" s="10"/>
+      <c r="D166" s="10"/>
     </row>
     <row r="167" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C167" s="8"/>
-      <c r="D167" s="8"/>
+      <c r="C167" s="10"/>
+      <c r="D167" s="10"/>
     </row>
     <row r="168" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C168" s="8"/>
-      <c r="D168" s="8"/>
+      <c r="C168" s="10"/>
+      <c r="D168" s="10"/>
     </row>
     <row r="169" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C169" s="8"/>
-      <c r="D169" s="8"/>
+      <c r="C169" s="10"/>
+      <c r="D169" s="10"/>
     </row>
     <row r="170" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C170" s="8"/>
-      <c r="D170" s="8"/>
+      <c r="C170" s="10"/>
+      <c r="D170" s="10"/>
     </row>
     <row r="171" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C171" s="8"/>
-      <c r="D171" s="8"/>
+      <c r="C171" s="10"/>
+      <c r="D171" s="10"/>
     </row>
     <row r="172" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C172" s="8"/>
-      <c r="D172" s="8"/>
+      <c r="C172" s="10"/>
+      <c r="D172" s="10"/>
     </row>
     <row r="173" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C173" s="8"/>
-      <c r="D173" s="8"/>
+      <c r="C173" s="10"/>
+      <c r="D173" s="10"/>
     </row>
     <row r="174" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C174" s="8"/>
-      <c r="D174" s="8"/>
+      <c r="C174" s="10"/>
+      <c r="D174" s="10"/>
     </row>
     <row r="175" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C175" s="8"/>
-      <c r="D175" s="8"/>
+      <c r="C175" s="10"/>
+      <c r="D175" s="10"/>
     </row>
     <row r="176" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C176" s="8"/>
-      <c r="D176" s="8"/>
+      <c r="C176" s="10"/>
+      <c r="D176" s="10"/>
     </row>
     <row r="177" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C177" s="8"/>
-      <c r="D177" s="8"/>
+      <c r="C177" s="10"/>
+      <c r="D177" s="10"/>
     </row>
     <row r="178" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C178" s="8"/>
-      <c r="D178" s="8"/>
+      <c r="C178" s="10"/>
+      <c r="D178" s="10"/>
     </row>
     <row r="179" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C179" s="8"/>
-      <c r="D179" s="8"/>
+      <c r="C179" s="10"/>
+      <c r="D179" s="10"/>
     </row>
     <row r="180" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C180" s="8"/>
-      <c r="D180" s="8"/>
+      <c r="C180" s="10"/>
+      <c r="D180" s="10"/>
     </row>
     <row r="181" spans="3:4" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C181" s="8"/>
-      <c r="D181" s="8"/>
+      <c r="C181" s="10"/>
+      <c r="D181" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="180">
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E2"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="C168:D168"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="C176:D176"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="C180:D180"/>
+    <mergeCell ref="C179:D179"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="C143:D143"/>
+    <mergeCell ref="C142:D142"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="C125:D125"/>
+    <mergeCell ref="C124:D124"/>
+    <mergeCell ref="C141:D141"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="C123:D123"/>
+    <mergeCell ref="C122:D122"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="C117:D117"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="C115:D115"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="C100:D100"/>
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="C81:D81"/>
     <mergeCell ref="C80:D80"/>
@@ -4938,91 +5092,83 @@
     <mergeCell ref="C85:D85"/>
     <mergeCell ref="C84:D84"/>
     <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="C123:D123"/>
-    <mergeCell ref="C122:D122"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="C117:D117"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="C115:D115"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="C113:D113"/>
-    <mergeCell ref="C112:D112"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="C125:D125"/>
-    <mergeCell ref="C124:D124"/>
-    <mergeCell ref="C141:D141"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="C143:D143"/>
-    <mergeCell ref="C142:D142"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="C156:D156"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="C150:D150"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="C176:D176"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="C180:D180"/>
-    <mergeCell ref="C179:D179"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="C171:D171"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="C168:D168"/>
-    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C62:D62"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
